--- a/SAC 6 excel spread sheet-not done.xlsx
+++ b/SAC 6 excel spread sheet-not done.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Style</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>sales of the months</t>
+  </si>
+  <si>
+    <t>total sales</t>
   </si>
 </sst>
 </file>
@@ -199,13 +202,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -219,6 +226,224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="141"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="41"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4405074365704292E-2"/>
+          <c:y val="3.75116652085156E-2"/>
+          <c:w val="0.88337270341207352"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="140213632"/>
+        <c:axId val="42910080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="140213632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42910080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42910080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140213632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,17 +733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2034,13 +2260,211 @@
         <f t="shared" si="2"/>
         <v>377</v>
       </c>
+      <c r="R29" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29">
+        <f>SUM(S4:S27)</f>
+        <v>366277.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>527</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86"/>
     </row>
   </sheetData>
   <sortState ref="A4:A30">
     <sortCondition ref="A4:A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SAC 6 excel spread sheet-not done.xlsx
+++ b/SAC 6 excel spread sheet-not done.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
   <si>
     <t>Style</t>
   </si>
@@ -133,6 +133,81 @@
   </si>
   <si>
     <t>total sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Balmoral Black Leather</t>
+  </si>
+  <si>
+    <t>Balmoral Brown Leather</t>
+  </si>
+  <si>
+    <t>Balmoral Tan Leather</t>
+  </si>
+  <si>
+    <t>Balmoral Tan Rubber</t>
+  </si>
+  <si>
+    <t>Brogue Black Leather</t>
+  </si>
+  <si>
+    <t>Brogue Brown Leather</t>
+  </si>
+  <si>
+    <t>Brogue Tan Rubber</t>
+  </si>
+  <si>
+    <t>Demi-boot Black Leather</t>
+  </si>
+  <si>
+    <t>Demi-boot Brown Leather</t>
+  </si>
+  <si>
+    <t>Demi-boot Tan Rubber</t>
+  </si>
+  <si>
+    <t>Dress pump Black Leather</t>
+  </si>
+  <si>
+    <t>Loafer Black Rubber</t>
+  </si>
+  <si>
+    <t>Loafer Brown Rubber</t>
+  </si>
+  <si>
+    <t>Loafer Blue Rubber</t>
+  </si>
+  <si>
+    <t>Oxford Black Leather</t>
+  </si>
+  <si>
+    <t>Oxford Tan Leather</t>
+  </si>
+  <si>
+    <t>Ranch boot Black Rubber</t>
+  </si>
+  <si>
+    <t>Ranch boot Brown Rubber</t>
+  </si>
+  <si>
+    <t>Ranch boot Tan Rubber</t>
+  </si>
+  <si>
+    <t>Sandal Black Rubber</t>
+  </si>
+  <si>
+    <t>Sandal Brown Rubber</t>
+  </si>
+  <si>
+    <t>Sandal Tan Rubber</t>
+  </si>
+  <si>
+    <t>Shenandoah Black Composite</t>
+  </si>
+  <si>
+    <t>Shenandoah Red Composite</t>
   </si>
 </sst>
 </file>
@@ -235,6 +310,1253 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.199695052857909E-2"/>
+          <c:y val="1.2027629001139723E-2"/>
+          <c:w val="0.75870324017917901"/>
+          <c:h val="0.92874271532469721"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8289.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4776.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Tan Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6600.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8950.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dress pump Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2016802089061651E-3"/>
+                  <c:y val="-2.168021175529947E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Blue Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1534853462253772E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14491.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxford Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxford Tan Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28765.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6805.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5350.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shenandoah Black Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shenandoah Red Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.8039204874477356E-3"/>
+                  <c:y val="-1.1825570048345165E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>sales revenue</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="99"/>
+        <c:overlap val="-100"/>
+        <c:axId val="137684864"/>
+        <c:axId val="137686400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137684864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137686400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137686400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137684864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80789907056848731"/>
+          <c:y val="6.0492912107148973E-2"/>
+          <c:w val="0.19210092943151266"/>
+          <c:h val="0.85536303568901173"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="141"/>
     </mc:Choice>
     <mc:Fallback>
@@ -249,8 +1571,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4405074365704292E-2"/>
-          <c:y val="3.75116652085156E-2"/>
+          <c:x val="0.11384951881014874"/>
+          <c:y val="7.4548702245552628E-2"/>
           <c:w val="0.88337270341207352"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
@@ -362,11 +1684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140213632"/>
-        <c:axId val="42910080"/>
+        <c:axId val="94124288"/>
+        <c:axId val="94148480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140213632"/>
+        <c:axId val="94124288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +1697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42910080"/>
+        <c:crossAx val="94148480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42910080"/>
+        <c:axId val="94148480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140213632"/>
+        <c:crossAx val="94124288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -411,24 +1733,1189 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="142"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="42"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>54.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Tan Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balmoral Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brogue Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Brown Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demi-boot Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dress pump Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loafer Blue Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>87.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxford Black Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oxford Tan Leather</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>180.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>180.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ranch boot Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>190.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Black Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Brown Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandal Tan Rubber</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shenandoah Black Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shenandoah Red Composite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>average price</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="-89"/>
+        <c:axId val="165907840"/>
+        <c:axId val="165995648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="165907840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165995648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165995648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165907840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -438,6 +2925,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -733,18 +3280,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2281,7 +4828,7 @@
       <c r="C32" s="2"/>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -2289,7 +4836,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +4844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,7 +4852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +4860,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -2321,7 +4868,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,7 +4876,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -2337,7 +4884,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -2345,7 +4892,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +4900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -2361,7 +4908,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -2369,13 +4916,300 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="str">
+        <f>CONCATENATE(A47,$A$46,B47,$A$46,C47)</f>
+        <v>Balmoral Black Leather</v>
+      </c>
+      <c r="F47">
+        <v>8289.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ref="E48:E70" si="3">CONCATENATE(A48,$A$46,B48,$A$46,C48)</f>
+        <v>Balmoral Brown Leather</v>
+      </c>
+      <c r="F48">
+        <v>4776.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="3"/>
+        <v>Balmoral Tan Leather</v>
+      </c>
+      <c r="F49">
+        <v>6600.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="3"/>
+        <v>Balmoral Tan Rubber</v>
+      </c>
+      <c r="F50">
+        <v>8950.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="3"/>
+        <v>Brogue Black Leather</v>
+      </c>
+      <c r="F51">
+        <v>13622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="3"/>
+        <v>Brogue Brown Leather</v>
+      </c>
+      <c r="F52">
+        <v>22148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="3"/>
+        <v>Brogue Tan Rubber</v>
+      </c>
+      <c r="F53">
+        <v>12792</v>
+      </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="3"/>
+        <v>Demi-boot Black Leather</v>
+      </c>
+      <c r="F54">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>Demi-boot Brown Leather</v>
+      </c>
+      <c r="F55">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v>Demi-boot Tan Rubber</v>
+      </c>
+      <c r="F56">
+        <v>18626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>Dress pump Black Leather</v>
+      </c>
+      <c r="F57">
+        <v>19080</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>Loafer Black Rubber</v>
+      </c>
+      <c r="F58">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>Loafer Brown Rubber</v>
+      </c>
+      <c r="F59">
+        <v>14175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>Loafer Blue Rubber</v>
+      </c>
+      <c r="F60">
+        <v>14491.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>Oxford Black Leather</v>
+      </c>
+      <c r="F61">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>Oxford Tan Leather</v>
+      </c>
+      <c r="F62" s="1">
+        <v>24610</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2386,85 +5220,416 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
       <c r="D63"/>
-    </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>Ranch boot Black Rubber</v>
+      </c>
+      <c r="F63">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
       <c r="D64"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>Ranch boot Brown Rubber</v>
+      </c>
+      <c r="F64">
+        <v>37905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
       <c r="D65"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>Ranch boot Tan Rubber</v>
+      </c>
+      <c r="F65">
+        <v>28765.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
       <c r="D66"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>Sandal Black Rubber</v>
+      </c>
+      <c r="F66">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
       <c r="D67"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f t="shared" si="3"/>
+        <v>Sandal Brown Rubber</v>
+      </c>
+      <c r="F67">
+        <v>6805.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
       <c r="D68"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>Sandal Tan Rubber</v>
+      </c>
+      <c r="F68">
+        <v>5350.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
       <c r="D69"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>Shenandoah Black Composite</v>
+      </c>
+      <c r="F69">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
       <c r="D70"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>Shenandoah Red Composite</v>
+      </c>
+      <c r="F70">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D73"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>54.9</v>
+      </c>
       <c r="D75"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76">
+        <v>54.9</v>
+      </c>
       <c r="D76"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77">
+        <v>56.9</v>
+      </c>
       <c r="D77"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78">
+        <v>45.9</v>
+      </c>
       <c r="D78"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79">
+        <v>98</v>
+      </c>
       <c r="D79"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80">
+        <v>98</v>
+      </c>
       <c r="D80"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81">
+        <v>104</v>
+      </c>
       <c r="D81"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82">
+        <v>130</v>
+      </c>
       <c r="D82"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83">
+        <v>130</v>
+      </c>
       <c r="D83"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>134</v>
+      </c>
       <c r="D84"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
       <c r="D85"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>67.5</v>
+      </c>
       <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93">
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A4:A30">
     <sortCondition ref="A4:A30"/>
   </sortState>
+  <conditionalFormatting sqref="E29:P29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:P2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2472,11 +5637,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
